--- a/application/models/sentiment_analysic/models_comparing.xlsx
+++ b/application/models/sentiment_analysic/models_comparing.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loc/Desktop/Git/23mse43006/7.ML/FinalAssignment/application/models/imdb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\sentiment_detect\application\models\sentiment_analysic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DDB0E0-2AAF-634B-B243-F0022366B3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8F925B-7542-4517-84F5-7907377AF03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17220" xr2:uid="{217A3811-43DA-DE44-AC48-5D6C361A4B00}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{217A3811-43DA-DE44-AC48-5D6C361A4B00}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="CUONG_UPDATE" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="97">
   <si>
     <t>Epoch</t>
   </si>
@@ -313,6 +314,21 @@
   </si>
   <si>
     <t>..</t>
+  </si>
+  <si>
+    <t>SIMPLE RNN</t>
+  </si>
+  <si>
+    <t>TRAINING</t>
+  </si>
+  <si>
+    <t>LSTM + Word2Vec</t>
+  </si>
+  <si>
+    <t>EVALUATION</t>
+  </si>
+  <si>
+    <t>time(second)</t>
   </si>
 </sst>
 </file>
@@ -362,7 +378,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,8 +403,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -422,11 +450,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,6 +556,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,6 +586,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>442722</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C590AB07-C6B6-45A4-B5E9-08751BA032B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="742951"/>
+          <a:ext cx="7110222" cy="4095750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>474026</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADDBD8A2-B6E6-6570-4A68-B2F9C83BF753}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="5534026"/>
+          <a:ext cx="7208201" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>94602</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1F51770-B9FD-D167-F7D6-E0FE8F579C00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819151" y="7486650"/>
+          <a:ext cx="7181850" cy="2809227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -781,23 +1041,729 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFA11B2-22CB-40D6-ACCF-ECE8E48F2130}">
+  <dimension ref="A2:R52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="11.25" customWidth="1"/>
+    <col min="15" max="15" width="16.25" customWidth="1"/>
+    <col min="16" max="16" width="12.375" customWidth="1"/>
+    <col min="17" max="17" width="6.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22"/>
+      <c r="O4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="29">
+        <v>0.43</v>
+      </c>
+      <c r="R4" s="29">
+        <v>0.8629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+      <c r="O5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="7">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="29">
+        <v>0.31509999999999999</v>
+      </c>
+      <c r="R5" s="29">
+        <v>0.87709999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22"/>
+      <c r="O6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>0.58189999999999997</v>
+      </c>
+      <c r="R6" s="29">
+        <v>0.87339999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="22"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="25"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="19"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="22"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="22"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="22"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="22"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="22"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="25"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="19"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="22"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="20"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="22"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="22"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="22"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="20"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="22"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="22"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="22"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="22"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="22"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="20"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="22"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="22"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="20"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="22"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="20"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="22"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="20"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="22"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="23"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6F9589-D7C6-7D41-A297-EBBCEE48F2BE}">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -805,7 +1771,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -813,7 +1779,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -827,7 +1793,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -838,7 +1804,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -849,7 +1815,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -863,7 +1829,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -871,7 +1837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -887,7 +1853,7 @@
       </c>
       <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -943,7 +1909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -999,7 +1965,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1016,7 +1982,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -1030,7 +1996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -1044,7 +2010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -1058,7 +2024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>6</v>
       </c>
@@ -1072,7 +2038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>7</v>
       </c>
@@ -1086,7 +2052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>8</v>
       </c>
@@ -1100,7 +2066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>9</v>
       </c>
@@ -1114,7 +2080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>10</v>
       </c>
@@ -1152,7 +2118,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3">
         <f>SUM(B12:B21)</f>
@@ -1167,17 +2133,17 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1191,7 +2157,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1199,7 +2165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -1217,7 +2183,7 @@
       </c>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +2239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -1329,7 +2295,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -1343,7 +2309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>3</v>
       </c>
@@ -1360,7 +2326,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -1374,7 +2340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>5</v>
       </c>
@@ -1388,7 +2354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>6</v>
       </c>
@@ -1402,7 +2368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>7</v>
       </c>
@@ -1416,7 +2382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>8</v>
       </c>
@@ -1433,7 +2399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>9</v>
       </c>
@@ -1450,7 +2416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>10</v>
       </c>
@@ -1488,7 +2454,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="3">
         <f>SUM(B31:B40)</f>
@@ -1500,12 +2466,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M43" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8" t="s">
@@ -1517,7 +2483,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>53</v>
       </c>
@@ -1532,7 +2498,7 @@
       </c>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>7</v>
       </c>
@@ -1547,7 +2513,7 @@
       </c>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>54</v>
       </c>
@@ -1562,7 +2528,7 @@
       </c>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>55</v>
       </c>
@@ -1577,7 +2543,7 @@
       </c>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>57</v>
       </c>
@@ -1594,17 +2560,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>80</v>
       </c>
@@ -1615,7 +2581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889D8882-E75D-0A40-9AEA-A36416F9415D}">
   <dimension ref="B2:J15"/>
   <sheetViews>
@@ -1623,12 +2589,12 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>87</v>
       </c>
@@ -1639,7 +2605,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>75</v>
       </c>
@@ -1650,7 +2616,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>82</v>
       </c>
@@ -1664,7 +2630,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>83</v>
       </c>
@@ -1675,7 +2641,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>86</v>
       </c>
@@ -1689,7 +2655,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>91</v>
       </c>
@@ -1697,7 +2663,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>91</v>
       </c>
@@ -1705,7 +2671,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>91</v>
       </c>
@@ -1713,7 +2679,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>91</v>
       </c>
@@ -1721,27 +2687,27 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>90</v>
       </c>
